--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_SwapQuotes.xlsx
@@ -14,9 +14,6 @@
     <sheet name="Swap3M" sheetId="18" r:id="rId5"/>
     <sheet name="Swap6M" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
   <si>
     <t>Currency</t>
   </si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>DEC12</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1078,22 +1078,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1388,7 +1372,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
@@ -1400,13 +1384,13 @@
     <col min="8" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="101" t="s">
         <v>72</v>
@@ -1415,14 +1399,14 @@
       <c r="D2" s="102"/>
       <c r="E2" s="103"/>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="13" t="s">
@@ -1431,7 +1415,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
@@ -1442,7 +1426,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="s">
@@ -1453,7 +1437,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
@@ -1464,19 +1448,18 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13" t="s">
@@ -1487,15 +1470,15 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="101" t="s">
         <v>70</v>
       </c>
@@ -1503,13 +1486,13 @@
       <c r="D12" s="102"/>
       <c r="E12" s="103"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
         <v>0</v>
@@ -1519,7 +1502,7 @@
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="13" t="s">
         <v>9</v>
@@ -1529,7 +1512,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
         <v>10</v>
@@ -1539,7 +1522,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
         <v>11</v>
@@ -1549,7 +1532,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1581,7 +1564,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="89" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="89" bestFit="1" customWidth="1"/>
@@ -1594,7 +1577,7 @@
     <col min="9" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="84"/>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -1604,7 +1587,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="88"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="99"/>
       <c r="C2" s="100"/>
@@ -1613,17 +1596,17 @@
         <f>Currency&amp;"_010_"&amp;"OIS.xml"</f>
         <v>GBP_010_OIS.xml</v>
       </c>
-      <c r="F2" s="92">
+      <c r="F2" s="92" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F72),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>57</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="93" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="94"/>
       <c r="C3" s="98" t="s">
@@ -1646,7 +1629,7 @@
       </c>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="94"/>
       <c r="C4" s="98" t="s">
@@ -1669,7 +1652,7 @@
       </c>
       <c r="H4" s="75"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="94"/>
       <c r="C5" s="98" t="s">
@@ -1692,7 +1675,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="94"/>
       <c r="C6" s="98" t="s">
@@ -1715,7 +1698,7 @@
       </c>
       <c r="H6" s="75"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="94"/>
       <c r="C7" s="98" t="s">
@@ -1738,7 +1721,7 @@
       </c>
       <c r="H7" s="75"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
       <c r="B8" s="94"/>
       <c r="C8" s="98" t="s">
@@ -1761,7 +1744,7 @@
       </c>
       <c r="H8" s="75"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="94"/>
       <c r="C9" s="98" t="s">
@@ -1784,7 +1767,7 @@
       </c>
       <c r="H9" s="75"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="94"/>
       <c r="C10" s="98" t="s">
@@ -1807,7 +1790,7 @@
       </c>
       <c r="H10" s="75"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="94"/>
       <c r="C11" s="98" t="s">
@@ -1830,7 +1813,7 @@
       </c>
       <c r="H11" s="75"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="94"/>
       <c r="C12" s="98" t="s">
@@ -1853,7 +1836,7 @@
       </c>
       <c r="H12" s="75"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="94"/>
       <c r="C13" s="98" t="s">
@@ -1876,7 +1859,7 @@
       </c>
       <c r="H13" s="75"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="94"/>
       <c r="C14" s="98" t="s">
@@ -1899,7 +1882,7 @@
       </c>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="94"/>
       <c r="C15" s="98" t="s">
@@ -1922,7 +1905,7 @@
       </c>
       <c r="H15" s="75"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
       <c r="B16" s="94"/>
       <c r="C16" s="98" t="s">
@@ -1945,7 +1928,7 @@
       </c>
       <c r="H16" s="75"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="94"/>
       <c r="C17" s="98" t="s">
@@ -1968,7 +1951,7 @@
       </c>
       <c r="H17" s="75"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="94"/>
       <c r="C18" s="98" t="s">
@@ -1991,7 +1974,7 @@
       </c>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="94"/>
       <c r="C19" s="98" t="s">
@@ -2014,7 +1997,7 @@
       </c>
       <c r="H19" s="75"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="94"/>
       <c r="C20" s="98" t="s">
@@ -2037,7 +2020,7 @@
       </c>
       <c r="H20" s="75"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="94"/>
       <c r="C21" s="98" t="s">
@@ -2060,7 +2043,7 @@
       </c>
       <c r="H21" s="75"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70"/>
       <c r="B22" s="94"/>
       <c r="C22" s="98" t="s">
@@ -2083,7 +2066,7 @@
       </c>
       <c r="H22" s="75"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="70"/>
       <c r="B23" s="94"/>
       <c r="C23" s="98" t="s">
@@ -2106,7 +2089,7 @@
       </c>
       <c r="H23" s="75"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="70"/>
       <c r="B24" s="94"/>
       <c r="C24" s="98" t="s">
@@ -2129,7 +2112,7 @@
       </c>
       <c r="H24" s="75"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="70"/>
       <c r="B25" s="94"/>
       <c r="C25" s="98" t="s">
@@ -2152,7 +2135,7 @@
       </c>
       <c r="H25" s="75"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="70"/>
       <c r="B26" s="94"/>
       <c r="C26" s="98" t="s">
@@ -2175,7 +2158,7 @@
       </c>
       <c r="H26" s="75"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="70"/>
       <c r="B27" s="94"/>
       <c r="C27" s="98" t="s">
@@ -2198,7 +2181,7 @@
       </c>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="70"/>
       <c r="B28" s="94"/>
       <c r="C28" s="98" t="s">
@@ -2221,7 +2204,7 @@
       </c>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="70"/>
       <c r="B29" s="94"/>
       <c r="C29" s="98" t="s">
@@ -2244,7 +2227,7 @@
       </c>
       <c r="H29" s="75"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="70"/>
       <c r="B30" s="94"/>
       <c r="C30" s="98" t="s">
@@ -2267,7 +2250,7 @@
       </c>
       <c r="H30" s="75"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="70"/>
       <c r="B31" s="94"/>
       <c r="C31" s="98" t="s">
@@ -2290,7 +2273,7 @@
       </c>
       <c r="H31" s="75"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="70"/>
       <c r="B32" s="94"/>
       <c r="C32" s="98" t="s">
@@ -2313,7 +2296,7 @@
       </c>
       <c r="H32" s="75"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="70"/>
       <c r="B33" s="94"/>
       <c r="C33" s="98" t="s">
@@ -2336,7 +2319,7 @@
       </c>
       <c r="H33" s="75"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="70"/>
       <c r="B34" s="94"/>
       <c r="C34" s="98" t="s">
@@ -2359,7 +2342,7 @@
       </c>
       <c r="H34" s="75"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="70"/>
       <c r="B35" s="94"/>
       <c r="C35" s="98" t="s">
@@ -2382,7 +2365,7 @@
       </c>
       <c r="H35" s="75"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="70"/>
       <c r="B36" s="72"/>
       <c r="C36" s="71"/>
@@ -2392,7 +2375,7 @@
       <c r="G36" s="74"/>
       <c r="H36" s="75"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="70"/>
       <c r="B37" s="77" t="s">
         <v>100</v>
@@ -2416,7 +2399,7 @@
       </c>
       <c r="H37" s="75"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="70"/>
       <c r="B38" s="77" t="s">
         <v>100</v>
@@ -2440,7 +2423,7 @@
       </c>
       <c r="H38" s="75"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="70"/>
       <c r="B39" s="77" t="s">
         <v>100</v>
@@ -2464,7 +2447,7 @@
       </c>
       <c r="H39" s="75"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="70"/>
       <c r="B40" s="77" t="s">
         <v>100</v>
@@ -2488,7 +2471,7 @@
       </c>
       <c r="H40" s="75"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="70"/>
       <c r="B41" s="77" t="s">
         <v>100</v>
@@ -2512,7 +2495,7 @@
       </c>
       <c r="H41" s="75"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
       <c r="B42" s="77" t="s">
         <v>100</v>
@@ -2536,7 +2519,7 @@
       </c>
       <c r="H42" s="75"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
       <c r="B43" s="77" t="s">
         <v>100</v>
@@ -2560,7 +2543,7 @@
       </c>
       <c r="H43" s="75"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="B44" s="77" t="s">
         <v>100</v>
@@ -2584,7 +2567,7 @@
       </c>
       <c r="H44" s="75"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="70"/>
       <c r="B45" s="77" t="s">
         <v>100</v>
@@ -2608,7 +2591,7 @@
       </c>
       <c r="H45" s="75"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="B46" s="77" t="s">
         <v>100</v>
@@ -2632,7 +2615,7 @@
       </c>
       <c r="H46" s="75"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="77" t="s">
         <v>100</v>
@@ -2656,7 +2639,7 @@
       </c>
       <c r="H47" s="75"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
       <c r="B48" s="77" t="s">
         <v>100</v>
@@ -2680,7 +2663,7 @@
       </c>
       <c r="H48" s="75"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
       <c r="B49" s="77" t="s">
         <v>100</v>
@@ -2704,7 +2687,7 @@
       </c>
       <c r="H49" s="75"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
       <c r="B50" s="77" t="s">
         <v>100</v>
@@ -2728,7 +2711,7 @@
       </c>
       <c r="H50" s="75"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="70"/>
       <c r="B51" s="77" t="s">
         <v>100</v>
@@ -2752,7 +2735,7 @@
       </c>
       <c r="H51" s="75"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="70"/>
       <c r="B52" s="77" t="s">
         <v>100</v>
@@ -2776,7 +2759,7 @@
       </c>
       <c r="H52" s="75"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="70"/>
       <c r="B53" s="77" t="s">
         <v>100</v>
@@ -2800,7 +2783,7 @@
       </c>
       <c r="H53" s="75"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="70"/>
       <c r="B54" s="77" t="s">
         <v>100</v>
@@ -2824,7 +2807,7 @@
       </c>
       <c r="H54" s="75"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="70"/>
       <c r="B55" s="77" t="s">
         <v>100</v>
@@ -2848,7 +2831,7 @@
       </c>
       <c r="H55" s="75"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="70"/>
       <c r="B56" s="77" t="s">
         <v>100</v>
@@ -2872,7 +2855,7 @@
       </c>
       <c r="H56" s="75"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="70"/>
       <c r="B57" s="77" t="s">
         <v>100</v>
@@ -2896,7 +2879,7 @@
       </c>
       <c r="H57" s="75"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="70"/>
       <c r="B58" s="77" t="s">
         <v>100</v>
@@ -2920,7 +2903,7 @@
       </c>
       <c r="H58" s="75"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="70"/>
       <c r="B59" s="77" t="s">
         <v>100</v>
@@ -2944,7 +2927,7 @@
       </c>
       <c r="H59" s="75"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="70"/>
       <c r="B60" s="77" t="s">
         <v>100</v>
@@ -2968,7 +2951,7 @@
       </c>
       <c r="H60" s="75"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="70"/>
       <c r="B61" s="77" t="s">
         <v>100</v>
@@ -2992,7 +2975,7 @@
       </c>
       <c r="H61" s="75"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="70"/>
       <c r="B62" s="77" t="s">
         <v>100</v>
@@ -3016,7 +2999,7 @@
       </c>
       <c r="H62" s="75"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="70"/>
       <c r="B63" s="77" t="s">
         <v>100</v>
@@ -3040,7 +3023,7 @@
       </c>
       <c r="H63" s="75"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="70"/>
       <c r="B64" s="77" t="s">
         <v>100</v>
@@ -3064,7 +3047,7 @@
       </c>
       <c r="H64" s="75"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="70"/>
       <c r="B65" s="77" t="s">
         <v>100</v>
@@ -3088,7 +3071,7 @@
       </c>
       <c r="H65" s="75"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="70"/>
       <c r="B66" s="77" t="s">
         <v>100</v>
@@ -3112,7 +3095,7 @@
       </c>
       <c r="H66" s="75"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="70"/>
       <c r="B67" s="77" t="s">
         <v>100</v>
@@ -3136,7 +3119,7 @@
       </c>
       <c r="H67" s="75"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="70"/>
       <c r="B68" s="77" t="s">
         <v>100</v>
@@ -3160,7 +3143,7 @@
       </c>
       <c r="H68" s="75"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="70"/>
       <c r="B69" s="77" t="s">
         <v>100</v>
@@ -3184,7 +3167,7 @@
       </c>
       <c r="H69" s="75"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="70"/>
       <c r="B70" s="77" t="s">
         <v>100</v>
@@ -3208,7 +3191,7 @@
       </c>
       <c r="H70" s="75"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="70"/>
       <c r="B71" s="77" t="s">
         <v>100</v>
@@ -3232,7 +3215,7 @@
       </c>
       <c r="H71" s="75"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="70"/>
       <c r="B72" s="77" t="s">
         <v>100</v>
@@ -3256,7 +3239,7 @@
       </c>
       <c r="H72" s="75"/>
     </row>
-    <row r="73" spans="1:8" ht="14.25" thickBot="1">
+    <row r="73" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="80"/>
       <c r="B73" s="81"/>
       <c r="C73" s="81"/>
@@ -3283,7 +3266,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -3295,7 +3278,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3305,7 +3288,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
@@ -3314,17 +3297,17 @@
         <f>Currency&amp;"_010_Sw"&amp;"1M.xml"</f>
         <v>GBP_010_Sw1M.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25"/>
       <c r="C3" s="21">
@@ -3347,7 +3330,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="27"/>
       <c r="C4" s="22">
@@ -3370,7 +3353,7 @@
       </c>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27"/>
       <c r="C5" s="22">
@@ -3393,7 +3376,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27"/>
       <c r="C6" s="22">
@@ -3416,7 +3399,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="27"/>
       <c r="C7" s="22">
@@ -3439,7 +3422,7 @@
       </c>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27"/>
       <c r="C8" s="22">
@@ -3462,7 +3445,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27"/>
       <c r="C9" s="22">
@@ -3485,7 +3468,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="27"/>
       <c r="C10" s="22">
@@ -3508,7 +3491,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27"/>
       <c r="C11" s="22">
@@ -3531,7 +3514,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27"/>
       <c r="C12" s="22">
@@ -3554,7 +3537,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27"/>
       <c r="C13" s="22">
@@ -3577,7 +3560,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" thickBot="1">
+    <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -3604,7 +3587,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -3616,7 +3599,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3626,7 +3609,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3635,17 +3618,17 @@
         <f>Currency&amp;"_010_Sw"&amp;"IMM.xml"</f>
         <v>GBP_010_SwIMM.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
@@ -3668,7 +3651,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="47"/>
       <c r="C4" s="1" t="s">
@@ -3691,7 +3674,7 @@
       </c>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="47"/>
       <c r="C5" s="1" t="s">
@@ -3714,7 +3697,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="47"/>
       <c r="C6" s="1" t="s">
@@ -3737,7 +3720,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="47"/>
       <c r="C7" s="1" t="s">
@@ -3760,7 +3743,7 @@
       </c>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="47"/>
       <c r="C8" s="1" t="s">
@@ -3783,7 +3766,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="47"/>
       <c r="C9" s="1" t="s">
@@ -3806,7 +3789,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -3833,7 +3816,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -3848,7 +3831,7 @@
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3858,7 +3841,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
         <v>71</v>
@@ -3869,12 +3852,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>GBP_010_SwAM3L.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
@@ -3888,7 +3871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25" t="s">
         <v>18</v>
@@ -3924,7 +3907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="27" t="s">
         <v>19</v>
@@ -3958,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27" t="s">
         <v>20</v>
@@ -3992,7 +3975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27" t="s">
         <v>21</v>
@@ -4026,7 +4009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="27" t="s">
         <v>22</v>
@@ -4060,7 +4043,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27" t="s">
         <v>23</v>
@@ -4085,7 +4068,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27" t="s">
         <v>24</v>
@@ -4110,7 +4093,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="27" t="s">
         <v>25</v>
@@ -4135,7 +4118,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27" t="s">
         <v>26</v>
@@ -4160,7 +4143,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27" t="s">
         <v>27</v>
@@ -4185,7 +4168,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27" t="s">
         <v>28</v>
@@ -4210,7 +4193,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="27" t="s">
         <v>29</v>
@@ -4235,7 +4218,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="27" t="s">
         <v>30</v>
@@ -4260,7 +4243,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="27" t="s">
         <v>31</v>
@@ -4285,7 +4268,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="27" t="s">
         <v>32</v>
@@ -4310,7 +4293,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="27" t="s">
         <v>33</v>
@@ -4335,7 +4318,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="27" t="s">
         <v>34</v>
@@ -4360,7 +4343,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="27" t="s">
         <v>35</v>
@@ -4385,7 +4368,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="27" t="s">
         <v>36</v>
@@ -4410,7 +4393,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="27" t="s">
         <v>37</v>
@@ -4435,7 +4418,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="27" t="s">
         <v>38</v>
@@ -4460,7 +4443,7 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="27" t="s">
         <v>39</v>
@@ -4485,7 +4468,7 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="27" t="s">
         <v>40</v>
@@ -4510,7 +4493,7 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="27" t="s">
         <v>41</v>
@@ -4535,7 +4518,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="27" t="s">
         <v>42</v>
@@ -4560,7 +4543,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="27" t="s">
         <v>43</v>
@@ -4585,7 +4568,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="27" t="s">
         <v>44</v>
@@ -4610,7 +4593,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
@@ -4635,7 +4618,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -4660,7 +4643,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="27" t="s">
         <v>47</v>
@@ -4685,7 +4668,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="27" t="s">
         <v>48</v>
@@ -4710,7 +4693,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="27" t="s">
         <v>49</v>
@@ -4735,7 +4718,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="27" t="s">
         <v>50</v>
@@ -4760,7 +4743,7 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="27" t="s">
         <v>51</v>
@@ -4785,7 +4768,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="27" t="s">
         <v>52</v>
@@ -4810,7 +4793,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="27" t="s">
         <v>53</v>
@@ -4835,7 +4818,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="27" t="s">
         <v>54</v>
@@ -4860,7 +4843,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1">
+    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -4887,7 +4870,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="52" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
@@ -4904,7 +4887,7 @@
     <col min="13" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" thickBot="1">
+    <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -4914,7 +4897,7 @@
       <c r="G1" s="50"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
         <v>71</v>
@@ -4925,12 +4908,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>GBP_010_SwSB6L.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
@@ -4944,7 +4927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="57" t="s">
         <v>18</v>
@@ -4980,7 +4963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="58" t="s">
         <v>19</v>
@@ -5014,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="58" t="s">
         <v>20</v>
@@ -5048,7 +5031,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="58" t="s">
         <v>21</v>
@@ -5082,7 +5065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12" thickBot="1">
+    <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="57" t="s">
         <v>22</v>
@@ -5116,7 +5099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="57" t="s">
         <v>23</v>
@@ -5141,7 +5124,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="57" t="s">
         <v>24</v>
@@ -5166,7 +5149,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="57" t="s">
         <v>25</v>
@@ -5191,7 +5174,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="57" t="s">
         <v>26</v>
@@ -5216,7 +5199,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="57" t="s">
         <v>27</v>
@@ -5241,7 +5224,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="57" t="s">
         <v>28</v>
@@ -5266,7 +5249,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="57" t="s">
         <v>29</v>
@@ -5291,7 +5274,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="57" t="s">
         <v>30</v>
@@ -5316,7 +5299,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="57" t="s">
         <v>31</v>
@@ -5341,7 +5324,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="57" t="s">
         <v>32</v>
@@ -5366,7 +5349,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="57" t="s">
         <v>33</v>
@@ -5391,7 +5374,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="57" t="s">
         <v>34</v>
@@ -5416,7 +5399,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="57" t="s">
         <v>35</v>
@@ -5441,7 +5424,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="57" t="s">
         <v>36</v>
@@ -5466,7 +5449,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="57" t="s">
         <v>37</v>
@@ -5491,7 +5474,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="57" t="s">
         <v>38</v>
@@ -5516,7 +5499,7 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="57" t="s">
         <v>39</v>
@@ -5541,7 +5524,7 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="57" t="s">
         <v>40</v>
@@ -5566,7 +5549,7 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="57" t="s">
         <v>41</v>
@@ -5591,7 +5574,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="57" t="s">
         <v>42</v>
@@ -5616,7 +5599,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="57" t="s">
         <v>43</v>
@@ -5641,7 +5624,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="57" t="s">
         <v>44</v>
@@ -5666,7 +5649,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="57" t="s">
         <v>45</v>
@@ -5691,7 +5674,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="57" t="s">
         <v>46</v>
@@ -5716,7 +5699,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="57" t="s">
         <v>47</v>
@@ -5741,7 +5724,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="57" t="s">
         <v>48</v>
@@ -5766,7 +5749,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="57" t="s">
         <v>49</v>
@@ -5791,7 +5774,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="57" t="s">
         <v>50</v>
@@ -5816,7 +5799,7 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="57" t="s">
         <v>51</v>
@@ -5841,7 +5824,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="57" t="s">
         <v>52</v>
@@ -5866,7 +5849,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="57" t="s">
         <v>53</v>
@@ -5891,7 +5874,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="57" t="s">
         <v>54</v>
@@ -5916,7 +5899,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="12" thickBot="1">
+    <row r="40" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_SwapQuotes.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="113">
   <si>
     <t>Currency</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>DEC12</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1454,8 +1451,9 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>113</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1597,12 +1595,12 @@
         <v>GBP_010_OIS.xml</v>
       </c>
       <c r="F2" s="92" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F72),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="93" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F72),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="93" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="75"/>
     </row>
@@ -3298,12 +3296,12 @@
         <v>GBP_010_Sw1M.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -3619,12 +3617,12 @@
         <v>GBP_010_SwIMM.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -3853,12 +3851,12 @@
         <v>GBP_010_SwAM3L.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -4909,12 +4907,12 @@
         <v>GBP_010_SwSB6L.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
